--- a/results_files/Sample/1-mst_file.xlsx
+++ b/results_files/Sample/1-mst_file.xlsx
@@ -118,9 +118,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -144,8 +150,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -175,10 +182,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="0">
@@ -186,10 +193,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="0">
@@ -197,10 +204,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="0">
@@ -208,10 +215,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="0">
@@ -219,10 +226,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="0">
@@ -230,10 +237,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="0">
@@ -241,10 +248,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="0">
@@ -252,10 +259,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="0">
@@ -263,10 +270,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="0">
@@ -274,10 +281,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="0">
@@ -285,10 +292,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="0">
@@ -296,10 +303,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="0">
@@ -307,10 +314,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="0">
@@ -318,10 +325,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="0">
@@ -329,10 +336,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="0">
@@ -340,6 +347,38 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" display="http://moss.stanford.edu/results/0/4012916089008/match7.html" r:id="rId1"/>
+    <hyperlink ref="B2" display="http://moss.stanford.edu/results/0/4012916089008/match7.html" r:id="rId2"/>
+    <hyperlink ref="A3" display="http://moss.stanford.edu/results/0/4012916089008/match10.html" r:id="rId3"/>
+    <hyperlink ref="B3" display="http://moss.stanford.edu/results/0/4012916089008/match10.html" r:id="rId4"/>
+    <hyperlink ref="A4" display="http://moss.stanford.edu/results/0/4012916089008/match1.html" r:id="rId5"/>
+    <hyperlink ref="B4" display="http://moss.stanford.edu/results/0/4012916089008/match1.html" r:id="rId6"/>
+    <hyperlink ref="A5" display="http://moss.stanford.edu/results/0/4012916089008/match4.html" r:id="rId7"/>
+    <hyperlink ref="B5" display="http://moss.stanford.edu/results/0/4012916089008/match4.html" r:id="rId8"/>
+    <hyperlink ref="A6" display="http://moss.stanford.edu/results/0/4012916089008/match14.html" r:id="rId9"/>
+    <hyperlink ref="B6" display="http://moss.stanford.edu/results/0/4012916089008/match14.html" r:id="rId10"/>
+    <hyperlink ref="A7" display="http://moss.stanford.edu/results/0/4012916089008/match13.html" r:id="rId11"/>
+    <hyperlink ref="B7" display="http://moss.stanford.edu/results/0/4012916089008/match13.html" r:id="rId12"/>
+    <hyperlink ref="A8" display="http://moss.stanford.edu/results/0/4012916089008/match9.html" r:id="rId13"/>
+    <hyperlink ref="B8" display="http://moss.stanford.edu/results/0/4012916089008/match9.html" r:id="rId14"/>
+    <hyperlink ref="A9" display="http://moss.stanford.edu/results/0/4012916089008/match2.html" r:id="rId15"/>
+    <hyperlink ref="B9" display="http://moss.stanford.edu/results/0/4012916089008/match2.html" r:id="rId16"/>
+    <hyperlink ref="A10" display="http://moss.stanford.edu/results/0/4012916089008/match18.html" r:id="rId17"/>
+    <hyperlink ref="B10" display="http://moss.stanford.edu/results/0/4012916089008/match18.html" r:id="rId18"/>
+    <hyperlink ref="A11" display="http://moss.stanford.edu/results/0/4012916089008/match17.html" r:id="rId19"/>
+    <hyperlink ref="B11" display="http://moss.stanford.edu/results/0/4012916089008/match17.html" r:id="rId20"/>
+    <hyperlink ref="A12" display="http://moss.stanford.edu/results/0/4012916089008/match15.html" r:id="rId21"/>
+    <hyperlink ref="B12" display="http://moss.stanford.edu/results/0/4012916089008/match15.html" r:id="rId22"/>
+    <hyperlink ref="A13" display="http://moss.stanford.edu/results/0/4012916089008/match11.html" r:id="rId23"/>
+    <hyperlink ref="B13" display="http://moss.stanford.edu/results/0/4012916089008/match11.html" r:id="rId24"/>
+    <hyperlink ref="A14" display="http://moss.stanford.edu/results/0/4012916089008/match6.html" r:id="rId25"/>
+    <hyperlink ref="B14" display="http://moss.stanford.edu/results/0/4012916089008/match6.html" r:id="rId26"/>
+    <hyperlink ref="A15" display="http://moss.stanford.edu/results/0/4012916089008/match0.html" r:id="rId27"/>
+    <hyperlink ref="B15" display="http://moss.stanford.edu/results/0/4012916089008/match0.html" r:id="rId28"/>
+    <hyperlink ref="A16" display="http://moss.stanford.edu/results/0/4012916089008/match19.html" r:id="rId29"/>
+    <hyperlink ref="B16" display="http://moss.stanford.edu/results/0/4012916089008/match19.html" r:id="rId30"/>
+  </hyperlinks>
   <headerFooter/>
 </worksheet>
 </file>
--- a/results_files/Sample/1-mst_file.xlsx
+++ b/results_files/Sample/1-mst_file.xlsx
@@ -169,6 +169,11 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.57024574279785" customWidth="1"/>
+    <col min="2" max="2" width="27.57024574279785" customWidth="1"/>
+    <col min="3" max="3" width="12.3634033203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">

--- a/results_files/Sample/1-mst_file.xlsx
+++ b/results_files/Sample/1-mst_file.xlsx
@@ -169,11 +169,6 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="27.57024574279785" customWidth="1"/>
-    <col min="2" max="2" width="27.57024574279785" customWidth="1"/>
-    <col min="3" max="3" width="12.3634033203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
